--- a/Project_1.xlsx
+++ b/Project_1.xlsx
@@ -495,7 +495,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U51"/>
+  <dimension ref="A1:V52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,6 +609,11 @@
           <t>Interns</t>
         </is>
       </c>
+      <c r="V1" s="12" t="inlineStr">
+        <is>
+          <t>Banana Chips</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -698,6 +703,11 @@
       <c r="U2" t="n">
         <v>0</v>
       </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Mickey</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -787,6 +797,11 @@
       <c r="U3" t="n">
         <v>0</v>
       </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -876,6 +891,7 @@
       <c r="U4" t="n">
         <v>0</v>
       </c>
+      <c r="V4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -965,6 +981,7 @@
       <c r="U5" t="n">
         <v>0</v>
       </c>
+      <c r="V5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1054,6 +1071,7 @@
       <c r="U6" t="n">
         <v>0</v>
       </c>
+      <c r="V6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1143,6 +1161,7 @@
       <c r="U7" t="n">
         <v>0</v>
       </c>
+      <c r="V7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1232,6 +1251,7 @@
       <c r="U8" t="n">
         <v>0</v>
       </c>
+      <c r="V8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1321,6 +1341,7 @@
       <c r="U9" t="n">
         <v>0</v>
       </c>
+      <c r="V9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1410,6 +1431,7 @@
       <c r="U10" t="n">
         <v>0</v>
       </c>
+      <c r="V10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1499,6 +1521,7 @@
       <c r="U11" t="n">
         <v>0</v>
       </c>
+      <c r="V11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1588,6 +1611,7 @@
       <c r="U12" t="n">
         <v>0</v>
       </c>
+      <c r="V12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1677,6 +1701,7 @@
       <c r="U13" t="n">
         <v>0</v>
       </c>
+      <c r="V13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1766,6 +1791,7 @@
       <c r="U14" t="n">
         <v>0</v>
       </c>
+      <c r="V14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1855,6 +1881,7 @@
       <c r="U15" t="n">
         <v>0</v>
       </c>
+      <c r="V15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1944,6 +1971,7 @@
       <c r="U16" t="n">
         <v>0</v>
       </c>
+      <c r="V16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2033,6 +2061,7 @@
       <c r="U17" t="n">
         <v>0</v>
       </c>
+      <c r="V17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2122,6 +2151,7 @@
       <c r="U18" t="n">
         <v>0</v>
       </c>
+      <c r="V18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2211,6 +2241,7 @@
       <c r="U19" t="n">
         <v>0</v>
       </c>
+      <c r="V19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2300,6 +2331,7 @@
       <c r="U20" t="n">
         <v>0</v>
       </c>
+      <c r="V20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2389,6 +2421,7 @@
       <c r="U21" t="n">
         <v>0</v>
       </c>
+      <c r="V21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2478,6 +2511,7 @@
       <c r="U22" t="n">
         <v>0</v>
       </c>
+      <c r="V22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2567,6 +2601,7 @@
       <c r="U23" t="n">
         <v>0</v>
       </c>
+      <c r="V23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2656,6 +2691,7 @@
       <c r="U24" t="n">
         <v>0</v>
       </c>
+      <c r="V24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2745,6 +2781,7 @@
       <c r="U25" t="n">
         <v>0</v>
       </c>
+      <c r="V25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2834,6 +2871,7 @@
       <c r="U26" t="n">
         <v>0</v>
       </c>
+      <c r="V26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2923,6 +2961,7 @@
       <c r="U27" t="n">
         <v>0</v>
       </c>
+      <c r="V27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3012,6 +3051,7 @@
       <c r="U28" t="n">
         <v>0</v>
       </c>
+      <c r="V28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3101,6 +3141,7 @@
       <c r="U29" t="n">
         <v>0</v>
       </c>
+      <c r="V29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3190,6 +3231,7 @@
       <c r="U30" t="n">
         <v>0</v>
       </c>
+      <c r="V30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3279,6 +3321,7 @@
       <c r="U31" t="n">
         <v>0</v>
       </c>
+      <c r="V31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3368,6 +3411,7 @@
       <c r="U32" t="n">
         <v>0</v>
       </c>
+      <c r="V32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3457,6 +3501,7 @@
       <c r="U33" t="n">
         <v>0</v>
       </c>
+      <c r="V33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3546,6 +3591,7 @@
       <c r="U34" t="n">
         <v>0</v>
       </c>
+      <c r="V34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3635,6 +3681,7 @@
       <c r="U35" t="n">
         <v>0</v>
       </c>
+      <c r="V35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3724,6 +3771,7 @@
       <c r="U36" t="n">
         <v>0</v>
       </c>
+      <c r="V36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3813,6 +3861,7 @@
       <c r="U37" t="n">
         <v>0</v>
       </c>
+      <c r="V37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3902,6 +3951,7 @@
       <c r="U38" t="n">
         <v>0</v>
       </c>
+      <c r="V38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3991,6 +4041,7 @@
       <c r="U39" t="n">
         <v>0</v>
       </c>
+      <c r="V39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4080,6 +4131,7 @@
       <c r="U40" t="n">
         <v>0</v>
       </c>
+      <c r="V40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4169,6 +4221,7 @@
       <c r="U41" t="n">
         <v>0</v>
       </c>
+      <c r="V41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4258,6 +4311,7 @@
       <c r="U42" t="n">
         <v>0</v>
       </c>
+      <c r="V42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4347,6 +4401,7 @@
       <c r="U43" t="n">
         <v>0</v>
       </c>
+      <c r="V43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4436,6 +4491,7 @@
       <c r="U44" t="n">
         <v>0</v>
       </c>
+      <c r="V44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4525,6 +4581,7 @@
       <c r="U45" t="n">
         <v>0</v>
       </c>
+      <c r="V45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4614,6 +4671,7 @@
       <c r="U46" t="n">
         <v>0</v>
       </c>
+      <c r="V46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4703,6 +4761,7 @@
       <c r="U47" t="n">
         <v>0</v>
       </c>
+      <c r="V47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4792,6 +4851,7 @@
       <c r="U48" t="n">
         <v>0</v>
       </c>
+      <c r="V48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4881,6 +4941,7 @@
       <c r="U49" t="n">
         <v>0</v>
       </c>
+      <c r="V49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4970,6 +5031,7 @@
       <c r="U50" t="n">
         <v>0</v>
       </c>
+      <c r="V50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -5041,12 +5103,61 @@
           <t>2023-12-20 00:00:00</t>
         </is>
       </c>
-      <c r="R51" t="inlineStr"/>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>12/25/2023</t>
+        </is>
+      </c>
       <c r="S51" t="inlineStr"/>
-      <c r="T51" t="inlineStr"/>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="U51" t="n">
         <v>0</v>
       </c>
+      <c r="V51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>52</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>frgsd</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>trhhrftgn</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>ytmhg</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>4</v>
+      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr"/>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8150,7 +8261,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BC16"/>
+  <dimension ref="A1:BB16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8426,11 +8537,6 @@
       </c>
       <c r="BB1" s="12" t="inlineStr">
         <is>
-          <t>Remarks</t>
-        </is>
-      </c>
-      <c r="BC1" s="12" t="inlineStr">
-        <is>
           <t>Project</t>
         </is>
       </c>
@@ -8697,11 +8803,6 @@
       </c>
       <c r="BB2" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="BC2" t="inlineStr">
-        <is>
           <t>2024-01-01 00:00:00</t>
         </is>
       </c>
@@ -8968,11 +9069,6 @@
       </c>
       <c r="BB3" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="BC3" t="inlineStr">
-        <is>
           <t>2024-01-02 00:00:00</t>
         </is>
       </c>
@@ -9239,11 +9335,6 @@
       </c>
       <c r="BB4" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="BC4" t="inlineStr">
-        <is>
           <t>2024-01-03 00:00:00</t>
         </is>
       </c>
@@ -9510,11 +9601,6 @@
       </c>
       <c r="BB5" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="BC5" t="inlineStr">
-        <is>
           <t>2024-01-04 00:00:00</t>
         </is>
       </c>
@@ -9781,11 +9867,6 @@
       </c>
       <c r="BB6" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="BC6" t="inlineStr">
-        <is>
           <t>2024-01-05 00:00:00</t>
         </is>
       </c>
@@ -10052,11 +10133,6 @@
       </c>
       <c r="BB7" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="BC7" t="inlineStr">
-        <is>
           <t>2024-01-06 00:00:00</t>
         </is>
       </c>
@@ -10323,11 +10399,6 @@
       </c>
       <c r="BB8" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="BC8" t="inlineStr">
-        <is>
           <t>2024-01-07 00:00:00</t>
         </is>
       </c>
@@ -10594,11 +10665,6 @@
       </c>
       <c r="BB9" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="BC9" t="inlineStr">
-        <is>
           <t>2024-01-08 00:00:00</t>
         </is>
       </c>
@@ -10865,11 +10931,6 @@
       </c>
       <c r="BB10" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="BC10" t="inlineStr">
-        <is>
           <t>2024-01-09 00:00:00</t>
         </is>
       </c>
@@ -11136,11 +11197,6 @@
       </c>
       <c r="BB11" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="BC11" t="inlineStr">
-        <is>
           <t>2024-01-10 00:00:00</t>
         </is>
       </c>
@@ -11407,11 +11463,6 @@
       </c>
       <c r="BB12" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="BC12" t="inlineStr">
-        <is>
           <t>2024-01-11 00:00:00</t>
         </is>
       </c>
@@ -11678,11 +11729,6 @@
       </c>
       <c r="BB13" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="BC13" t="inlineStr">
-        <is>
           <t>2024-01-12 00:00:00</t>
         </is>
       </c>
@@ -11949,11 +11995,6 @@
       </c>
       <c r="BB14" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="BC14" t="inlineStr">
-        <is>
           <t>2024-01-13 00:00:00</t>
         </is>
       </c>
@@ -12219,11 +12260,6 @@
         </is>
       </c>
       <c r="BB15" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="BC15" t="inlineStr">
         <is>
           <t>2024-01-14 00:00:00</t>
         </is>
